--- a/MySurvivorsGame/Assets/StreamingAssets/SceneProcessData.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/SceneProcessData.xlsx
@@ -110,12 +110,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,6 +476,242 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/MySurvivorsGame/Assets/StreamingAssets/SceneProcessData.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/SceneProcessData.xlsx
@@ -455,7 +455,7 @@
         <v>10.0</v>
       </c>
       <c r="D4" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" s="1">
         <v>0.0</v>
@@ -487,7 +487,7 @@
         <v>20.0</v>
       </c>
       <c r="D5" s="1">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="E5" s="1">
         <v>0.0</v>
@@ -505,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="J5" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">

--- a/MySurvivorsGame/Assets/StreamingAssets/SceneProcessData.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/SceneProcessData.xlsx
@@ -505,80 +505,200 @@
         <v>0.0</v>
       </c>
       <c r="J5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
         <v>1.0</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="A7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="A8" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="A9" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="A10" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="A11" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2"/>
